--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paroon\PycharmProjects\django-stock\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paroon\PycharmProjects\midas-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFC683-3F90-4271-BA79-BA269AEF1D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B9160-9787-4377-9316-E7FA1EF3D488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="650">
   <si>
     <t>Investing</t>
   </si>
@@ -1426,9 +1426,6 @@
     <t>MNRF</t>
   </si>
   <si>
-    <t>M-PAT</t>
-  </si>
-  <si>
     <t>M-STOR</t>
   </si>
   <si>
@@ -1486,9 +1483,6 @@
     <t>TTLPF</t>
   </si>
   <si>
-    <t>TU-PF</t>
-  </si>
-  <si>
     <t>URBNPF</t>
   </si>
   <si>
@@ -1900,9 +1894,6 @@
     <t>MNRFu</t>
   </si>
   <si>
-    <t>M-PATu</t>
-  </si>
-  <si>
     <t>M-STORu</t>
   </si>
   <si>
@@ -1960,9 +1951,6 @@
     <t>TTLPFu</t>
   </si>
   <si>
-    <t>TU-PFu</t>
-  </si>
-  <si>
     <t>URBNPFu</t>
   </si>
   <si>
@@ -1976,6 +1964,12 @@
   </si>
   <si>
     <t>WPH-R</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>S-&amp;-J</t>
   </si>
 </sst>
 </file>
@@ -2043,17 +2037,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2398,31 +2382,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:E587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="T479" sqref="T479"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="I416" sqref="I416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2422,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2449,8 +2439,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,8 +2456,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2477,8 +2473,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2491,8 +2490,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2505,8 +2507,11 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2519,8 +2524,11 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2533,8 +2541,11 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2547,8 +2558,11 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2561,8 +2575,11 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2575,8 +2592,11 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2589,8 +2609,11 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2603,8 +2626,11 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2617,8 +2643,11 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2631,13 +2660,16 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2645,8 +2677,11 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2659,8 +2694,11 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2673,8 +2711,11 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2687,8 +2728,11 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2701,8 +2745,11 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2715,8 +2762,11 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2729,8 +2779,11 @@
       <c r="D23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2743,8 +2796,11 @@
       <c r="D24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2757,8 +2813,11 @@
       <c r="D25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2771,8 +2830,11 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2785,8 +2847,11 @@
       <c r="D27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2799,8 +2864,11 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2813,8 +2881,11 @@
       <c r="D29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2827,8 +2898,11 @@
       <c r="D30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2841,8 +2915,11 @@
       <c r="D31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2855,8 +2932,11 @@
       <c r="D32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2869,8 +2949,11 @@
       <c r="D33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2883,8 +2966,11 @@
       <c r="D34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2897,8 +2983,11 @@
       <c r="D35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2911,8 +3000,11 @@
       <c r="D36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2925,8 +3017,11 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2939,8 +3034,11 @@
       <c r="D38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2953,8 +3051,11 @@
       <c r="D39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2967,8 +3068,11 @@
       <c r="D40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2981,8 +3085,11 @@
       <c r="D41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3102,11 @@
       <c r="D42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -3009,8 +3119,11 @@
       <c r="D43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -3023,8 +3136,11 @@
       <c r="D44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,8 +3153,11 @@
       <c r="D45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,8 +3170,11 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -3065,8 +3187,11 @@
       <c r="D47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -3079,8 +3204,11 @@
       <c r="D48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -3093,13 +3221,16 @@
       <c r="D49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -3107,8 +3238,11 @@
       <c r="D50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -3121,8 +3255,11 @@
       <c r="D51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -3135,8 +3272,11 @@
       <c r="D52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3149,8 +3289,11 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3163,8 +3306,11 @@
       <c r="D54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="D55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3191,8 +3340,11 @@
       <c r="D56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -3205,8 +3357,11 @@
       <c r="D57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -3219,8 +3374,11 @@
       <c r="D58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -3233,8 +3391,11 @@
       <c r="D59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -3247,8 +3408,11 @@
       <c r="D60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -3261,8 +3425,11 @@
       <c r="D61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -3275,8 +3442,11 @@
       <c r="D62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -3289,8 +3459,11 @@
       <c r="D63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -3303,8 +3476,11 @@
       <c r="D64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -3317,8 +3493,11 @@
       <c r="D65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -3331,8 +3510,11 @@
       <c r="D66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -3345,8 +3527,11 @@
       <c r="D67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -3359,8 +3544,11 @@
       <c r="D68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -3373,8 +3561,11 @@
       <c r="D69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -3387,8 +3578,11 @@
       <c r="D70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -3401,8 +3595,11 @@
       <c r="D71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -3415,8 +3612,11 @@
       <c r="D72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3429,8 +3629,11 @@
       <c r="D73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -3443,8 +3646,11 @@
       <c r="D74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -3457,8 +3663,11 @@
       <c r="D75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -3471,8 +3680,11 @@
       <c r="D76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3485,8 +3697,11 @@
       <c r="D77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3499,8 +3714,11 @@
       <c r="D78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -3513,8 +3731,11 @@
       <c r="D79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -3527,8 +3748,11 @@
       <c r="D80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -3541,8 +3765,11 @@
       <c r="D81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -3555,8 +3782,11 @@
       <c r="D82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3569,8 +3799,11 @@
       <c r="D83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3583,8 +3816,11 @@
       <c r="D84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,8 +3833,11 @@
       <c r="D85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3611,8 +3850,11 @@
       <c r="D86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3625,8 +3867,11 @@
       <c r="D87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3639,8 +3884,11 @@
       <c r="D88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,8 +3901,11 @@
       <c r="D89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3667,8 +3918,11 @@
       <c r="D90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3681,8 +3935,11 @@
       <c r="D91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3695,8 +3952,11 @@
       <c r="D92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3709,8 +3969,11 @@
       <c r="D93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3723,8 +3986,11 @@
       <c r="D94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3737,8 +4003,11 @@
       <c r="D95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3751,8 +4020,11 @@
       <c r="D96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3765,8 +4037,11 @@
       <c r="D97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -3779,8 +4054,11 @@
       <c r="D98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3793,8 +4071,11 @@
       <c r="D99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3807,8 +4088,11 @@
       <c r="D100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3821,8 +4105,11 @@
       <c r="D101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3835,8 +4122,11 @@
       <c r="D102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3849,8 +4139,11 @@
       <c r="D103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3863,8 +4156,11 @@
       <c r="D104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3877,8 +4173,11 @@
       <c r="D105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3891,8 +4190,11 @@
       <c r="D106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3905,8 +4207,11 @@
       <c r="D107" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3919,8 +4224,11 @@
       <c r="D108" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3933,8 +4241,11 @@
       <c r="D109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3947,8 +4258,11 @@
       <c r="D110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3961,8 +4275,11 @@
       <c r="D111" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3975,8 +4292,11 @@
       <c r="D112" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3989,8 +4309,11 @@
       <c r="D113" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -4003,8 +4326,11 @@
       <c r="D114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -4017,8 +4343,11 @@
       <c r="D115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -4031,13 +4360,16 @@
       <c r="D116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
@@ -4045,8 +4377,11 @@
       <c r="D117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -4059,8 +4394,11 @@
       <c r="D118" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4073,8 +4411,11 @@
       <c r="D119" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4087,8 +4428,11 @@
       <c r="D120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4101,8 +4445,11 @@
       <c r="D121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4115,8 +4462,11 @@
       <c r="D122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4129,8 +4479,11 @@
       <c r="D123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4143,8 +4496,11 @@
       <c r="D124" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4157,8 +4513,11 @@
       <c r="D125" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4171,8 +4530,11 @@
       <c r="D126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4185,8 +4547,11 @@
       <c r="D127" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4199,8 +4564,11 @@
       <c r="D128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4213,8 +4581,11 @@
       <c r="D129" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4227,8 +4598,11 @@
       <c r="D130" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4241,8 +4615,11 @@
       <c r="D131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4255,8 +4632,11 @@
       <c r="D132" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4269,8 +4649,11 @@
       <c r="D133" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4283,8 +4666,11 @@
       <c r="D134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4297,8 +4683,11 @@
       <c r="D135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4311,8 +4700,11 @@
       <c r="D136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4325,8 +4717,11 @@
       <c r="D137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4339,8 +4734,11 @@
       <c r="D138" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -4353,8 +4751,11 @@
       <c r="D139" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -4367,8 +4768,11 @@
       <c r="D140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -4381,8 +4785,11 @@
       <c r="D141" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -4395,8 +4802,11 @@
       <c r="D142" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -4409,8 +4819,11 @@
       <c r="D143" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -4423,8 +4836,11 @@
       <c r="D144" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4437,8 +4853,11 @@
       <c r="D145" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -4451,8 +4870,11 @@
       <c r="D146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -4465,8 +4887,11 @@
       <c r="D147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -4479,8 +4904,11 @@
       <c r="D148" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -4493,8 +4921,11 @@
       <c r="D149" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -4507,8 +4938,11 @@
       <c r="D150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4521,8 +4955,11 @@
       <c r="D151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -4535,8 +4972,11 @@
       <c r="D152" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -4549,8 +4989,11 @@
       <c r="D153" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -4563,8 +5006,11 @@
       <c r="D154" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -4577,8 +5023,11 @@
       <c r="D155" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -4591,8 +5040,11 @@
       <c r="D156" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -4605,8 +5057,11 @@
       <c r="D157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -4619,8 +5074,11 @@
       <c r="D158" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4633,8 +5091,11 @@
       <c r="D159" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4647,8 +5108,11 @@
       <c r="D160" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -4661,8 +5125,11 @@
       <c r="D161" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4675,8 +5142,11 @@
       <c r="D162" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4689,8 +5159,11 @@
       <c r="D163" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -4703,8 +5176,11 @@
       <c r="D164" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -4717,8 +5193,11 @@
       <c r="D165" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -4731,8 +5210,11 @@
       <c r="D166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -4745,8 +5227,11 @@
       <c r="D167" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -4759,8 +5244,11 @@
       <c r="D168" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -4773,8 +5261,11 @@
       <c r="D169" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -4787,8 +5278,11 @@
       <c r="D170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -4801,8 +5295,11 @@
       <c r="D171" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -4815,8 +5312,11 @@
       <c r="D172" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -4829,8 +5329,11 @@
       <c r="D173" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -4843,8 +5346,11 @@
       <c r="D174" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -4857,8 +5363,11 @@
       <c r="D175" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -4871,8 +5380,11 @@
       <c r="D176" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -4885,8 +5397,11 @@
       <c r="D177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -4899,8 +5414,11 @@
       <c r="D178" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -4913,8 +5431,11 @@
       <c r="D179" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -4927,8 +5448,11 @@
       <c r="D180" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -4941,8 +5465,11 @@
       <c r="D181" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4955,8 +5482,11 @@
       <c r="D182" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4969,8 +5499,11 @@
       <c r="D183" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4983,8 +5516,11 @@
       <c r="D184" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4997,8 +5533,11 @@
       <c r="D185" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -5011,8 +5550,11 @@
       <c r="D186" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -5025,8 +5567,11 @@
       <c r="D187" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -5039,8 +5584,11 @@
       <c r="D188" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -5053,8 +5601,11 @@
       <c r="D189" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -5067,8 +5618,11 @@
       <c r="D190" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -5081,8 +5635,11 @@
       <c r="D191" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -5095,8 +5652,11 @@
       <c r="D192" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -5109,8 +5669,11 @@
       <c r="D193" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -5123,8 +5686,11 @@
       <c r="D194" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -5137,8 +5703,11 @@
       <c r="D195" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -5151,8 +5720,11 @@
       <c r="D196" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -5165,8 +5737,11 @@
       <c r="D197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -5179,8 +5754,11 @@
       <c r="D198" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -5193,8 +5771,11 @@
       <c r="D199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -5207,8 +5788,11 @@
       <c r="D200" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -5221,8 +5805,11 @@
       <c r="D201" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -5235,8 +5822,11 @@
       <c r="D202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -5249,8 +5839,11 @@
       <c r="D203" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -5263,8 +5856,11 @@
       <c r="D204" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -5277,8 +5873,11 @@
       <c r="D205" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -5291,8 +5890,11 @@
       <c r="D206" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -5305,8 +5907,11 @@
       <c r="D207" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -5319,8 +5924,11 @@
       <c r="D208" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -5333,8 +5941,11 @@
       <c r="D209" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -5347,8 +5958,11 @@
       <c r="D210" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -5361,8 +5975,11 @@
       <c r="D211" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -5375,8 +5992,11 @@
       <c r="D212" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -5389,8 +6009,11 @@
       <c r="D213" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -5403,8 +6026,11 @@
       <c r="D214" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -5417,8 +6043,11 @@
       <c r="D215" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -5431,8 +6060,11 @@
       <c r="D216" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -5445,8 +6077,11 @@
       <c r="D217" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -5459,8 +6094,11 @@
       <c r="D218" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -5473,8 +6111,11 @@
       <c r="D219" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -5487,8 +6128,11 @@
       <c r="D220" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -5501,8 +6145,11 @@
       <c r="D221" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -5515,8 +6162,11 @@
       <c r="D222" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -5529,8 +6179,11 @@
       <c r="D223" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -5543,8 +6196,11 @@
       <c r="D224" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -5557,8 +6213,11 @@
       <c r="D225" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -5571,8 +6230,11 @@
       <c r="D226" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -5585,8 +6247,11 @@
       <c r="D227" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -5594,13 +6259,16 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>651</v>
+        <v>229</v>
       </c>
       <c r="D228" t="s">
+        <v>647</v>
+      </c>
+      <c r="E228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -5613,8 +6281,11 @@
       <c r="D229" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -5627,8 +6298,11 @@
       <c r="D230" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -5641,8 +6315,11 @@
       <c r="D231" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -5655,8 +6332,11 @@
       <c r="D232" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -5669,8 +6349,11 @@
       <c r="D233" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -5683,8 +6366,11 @@
       <c r="D234" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -5697,13 +6383,16 @@
       <c r="D235" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C236" t="s">
         <v>237</v>
@@ -5711,8 +6400,11 @@
       <c r="D236" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -5725,8 +6417,11 @@
       <c r="D237" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -5739,8 +6434,11 @@
       <c r="D238" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -5753,8 +6451,11 @@
       <c r="D239" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -5767,8 +6468,11 @@
       <c r="D240" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -5781,8 +6485,11 @@
       <c r="D241" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -5795,13 +6502,16 @@
       <c r="D242" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C243" t="s">
         <v>244</v>
@@ -5809,8 +6519,11 @@
       <c r="D243" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -5823,8 +6536,11 @@
       <c r="D244" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -5837,8 +6553,11 @@
       <c r="D245" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -5851,8 +6570,11 @@
       <c r="D246" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -5865,8 +6587,11 @@
       <c r="D247" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -5879,8 +6604,11 @@
       <c r="D248" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -5893,8 +6621,11 @@
       <c r="D249" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -5907,8 +6638,11 @@
       <c r="D250" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -5921,8 +6655,11 @@
       <c r="D251" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -5935,8 +6672,11 @@
       <c r="D252" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -5949,8 +6689,11 @@
       <c r="D253" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -5963,8 +6706,11 @@
       <c r="D254" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -5977,8 +6723,11 @@
       <c r="D255" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -5991,8 +6740,11 @@
       <c r="D256" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -6005,8 +6757,11 @@
       <c r="D257" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -6019,8 +6774,11 @@
       <c r="D258" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -6031,10 +6789,13 @@
         <v>260</v>
       </c>
       <c r="D259" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E259" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -6047,8 +6808,11 @@
       <c r="D260" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -6061,8 +6825,11 @@
       <c r="D261" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -6075,8 +6842,11 @@
       <c r="D262" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -6089,8 +6859,11 @@
       <c r="D263" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -6103,8 +6876,11 @@
       <c r="D264" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -6117,8 +6893,11 @@
       <c r="D265" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -6131,8 +6910,11 @@
       <c r="D266" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -6145,8 +6927,11 @@
       <c r="D267" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -6159,8 +6944,11 @@
       <c r="D268" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -6173,8 +6961,11 @@
       <c r="D269" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -6187,8 +6978,11 @@
       <c r="D270" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -6201,8 +6995,11 @@
       <c r="D271" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -6215,8 +7012,11 @@
       <c r="D272" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -6229,8 +7029,11 @@
       <c r="D273" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -6243,8 +7046,11 @@
       <c r="D274" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -6257,8 +7063,11 @@
       <c r="D275" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -6271,8 +7080,11 @@
       <c r="D276" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -6285,8 +7097,11 @@
       <c r="D277" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -6299,8 +7114,11 @@
       <c r="D278" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -6313,8 +7131,11 @@
       <c r="D279" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -6327,8 +7148,11 @@
       <c r="D280" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -6341,8 +7165,11 @@
       <c r="D281" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -6355,8 +7182,11 @@
       <c r="D282" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -6369,8 +7199,11 @@
       <c r="D283" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -6383,8 +7216,11 @@
       <c r="D284" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -6397,8 +7233,11 @@
       <c r="D285" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -6411,8 +7250,11 @@
       <c r="D286" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -6425,8 +7267,11 @@
       <c r="D287" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -6439,8 +7284,11 @@
       <c r="D288" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -6453,8 +7301,11 @@
       <c r="D289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -6467,8 +7318,11 @@
       <c r="D290" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -6481,8 +7335,11 @@
       <c r="D291" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
@@ -6495,8 +7352,11 @@
       <c r="D292" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
@@ -6509,8 +7369,11 @@
       <c r="D293" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
@@ -6523,8 +7386,11 @@
       <c r="D294" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
@@ -6537,8 +7403,11 @@
       <c r="D295" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
@@ -6551,8 +7420,11 @@
       <c r="D296" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
@@ -6565,8 +7437,11 @@
       <c r="D297" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
@@ -6579,8 +7454,11 @@
       <c r="D298" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
@@ -6593,8 +7471,11 @@
       <c r="D299" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
@@ -6607,8 +7488,11 @@
       <c r="D300" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
@@ -6621,8 +7505,11 @@
       <c r="D301" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
@@ -6635,8 +7522,11 @@
       <c r="D302" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
@@ -6649,8 +7539,11 @@
       <c r="D303" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
@@ -6663,8 +7556,11 @@
       <c r="D304" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
@@ -6677,8 +7573,11 @@
       <c r="D305" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>307</v>
       </c>
@@ -6691,8 +7590,11 @@
       <c r="D306" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
@@ -6705,8 +7607,11 @@
       <c r="D307" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
@@ -6719,8 +7624,11 @@
       <c r="D308" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
@@ -6733,8 +7641,11 @@
       <c r="D309" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
@@ -6747,8 +7658,11 @@
       <c r="D310" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>312</v>
       </c>
@@ -6761,8 +7675,11 @@
       <c r="D311" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
@@ -6775,8 +7692,11 @@
       <c r="D312" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
@@ -6789,8 +7709,11 @@
       <c r="D313" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>315</v>
       </c>
@@ -6803,8 +7726,11 @@
       <c r="D314" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>316</v>
       </c>
@@ -6817,8 +7743,11 @@
       <c r="D315" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>317</v>
       </c>
@@ -6831,8 +7760,11 @@
       <c r="D316" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
@@ -6845,8 +7777,11 @@
       <c r="D317" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
@@ -6859,8 +7794,11 @@
       <c r="D318" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
@@ -6873,8 +7811,11 @@
       <c r="D319" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>321</v>
       </c>
@@ -6887,8 +7828,11 @@
       <c r="D320" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>322</v>
       </c>
@@ -6901,8 +7845,11 @@
       <c r="D321" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
@@ -6915,8 +7862,11 @@
       <c r="D322" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
@@ -6929,8 +7879,11 @@
       <c r="D323" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
@@ -6943,8 +7896,11 @@
       <c r="D324" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
@@ -6957,8 +7913,11 @@
       <c r="D325" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
@@ -6971,8 +7930,11 @@
       <c r="D326" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
@@ -6985,8 +7947,11 @@
       <c r="D327" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
@@ -6999,8 +7964,11 @@
       <c r="D328" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
@@ -7013,8 +7981,11 @@
       <c r="D329" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
@@ -7027,8 +7998,11 @@
       <c r="D330" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
@@ -7041,8 +8015,11 @@
       <c r="D331" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
@@ -7055,8 +8032,11 @@
       <c r="D332" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
@@ -7069,8 +8049,11 @@
       <c r="D333" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
@@ -7083,8 +8066,11 @@
       <c r="D334" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
@@ -7097,8 +8083,11 @@
       <c r="D335" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
@@ -7111,8 +8100,11 @@
       <c r="D336" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
@@ -7125,8 +8117,11 @@
       <c r="D337" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
@@ -7139,8 +8134,11 @@
       <c r="D338" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
@@ -7153,8 +8151,11 @@
       <c r="D339" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
@@ -7167,8 +8168,11 @@
       <c r="D340" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
@@ -7181,8 +8185,11 @@
       <c r="D341" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
@@ -7195,8 +8202,11 @@
       <c r="D342" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
@@ -7209,8 +8219,11 @@
       <c r="D343" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
@@ -7223,8 +8236,11 @@
       <c r="D344" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
@@ -7237,8 +8253,11 @@
       <c r="D345" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
@@ -7251,8 +8270,11 @@
       <c r="D346" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
@@ -7265,8 +8287,11 @@
       <c r="D347" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
@@ -7279,8 +8304,11 @@
       <c r="D348" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
@@ -7293,8 +8321,11 @@
       <c r="D349" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
@@ -7307,8 +8338,11 @@
       <c r="D350" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
@@ -7321,8 +8355,11 @@
       <c r="D351" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
@@ -7335,8 +8372,11 @@
       <c r="D352" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
@@ -7349,8 +8389,11 @@
       <c r="D353" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
@@ -7363,8 +8406,11 @@
       <c r="D354" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
@@ -7377,8 +8423,11 @@
       <c r="D355" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
@@ -7391,8 +8440,11 @@
       <c r="D356" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
@@ -7405,8 +8457,11 @@
       <c r="D357" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
@@ -7419,8 +8474,11 @@
       <c r="D358" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
@@ -7433,8 +8491,11 @@
       <c r="D359" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
@@ -7447,8 +8508,11 @@
       <c r="D360" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
@@ -7461,8 +8525,11 @@
       <c r="D361" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
@@ -7475,8 +8542,11 @@
       <c r="D362" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
@@ -7489,8 +8559,11 @@
       <c r="D363" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
@@ -7503,8 +8576,11 @@
       <c r="D364" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
@@ -7517,8 +8593,11 @@
       <c r="D365" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
@@ -7531,8 +8610,11 @@
       <c r="D366" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
@@ -7545,8 +8627,11 @@
       <c r="D367" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
@@ -7559,8 +8644,11 @@
       <c r="D368" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
@@ -7573,8 +8661,11 @@
       <c r="D369" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
@@ -7587,8 +8678,11 @@
       <c r="D370" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
@@ -7601,8 +8695,11 @@
       <c r="D371" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
@@ -7615,8 +8712,11 @@
       <c r="D372" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
@@ -7629,8 +8729,11 @@
       <c r="D373" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
@@ -7643,8 +8746,11 @@
       <c r="D374" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
@@ -7657,8 +8763,11 @@
       <c r="D375" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
@@ -7671,8 +8780,11 @@
       <c r="D376" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
@@ -7685,8 +8797,11 @@
       <c r="D377" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
@@ -7699,8 +8814,11 @@
       <c r="D378" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
@@ -7713,8 +8831,11 @@
       <c r="D379" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
@@ -7727,8 +8848,11 @@
       <c r="D380" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
@@ -7741,8 +8865,11 @@
       <c r="D381" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
@@ -7755,8 +8882,11 @@
       <c r="D382" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
@@ -7769,8 +8899,11 @@
       <c r="D383" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
@@ -7783,8 +8916,11 @@
       <c r="D384" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
@@ -7797,8 +8933,11 @@
       <c r="D385" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
@@ -7811,8 +8950,11 @@
       <c r="D386" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
@@ -7825,8 +8967,11 @@
       <c r="D387" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
@@ -7839,8 +8984,11 @@
       <c r="D388" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
@@ -7853,8 +9001,11 @@
       <c r="D389" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
@@ -7867,8 +9018,11 @@
       <c r="D390" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
@@ -7881,8 +9035,11 @@
       <c r="D391" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
@@ -7895,8 +9052,11 @@
       <c r="D392" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
@@ -7909,8 +9069,11 @@
       <c r="D393" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
@@ -7923,8 +9086,11 @@
       <c r="D394" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
@@ -7937,8 +9103,11 @@
       <c r="D395" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
@@ -7951,8 +9120,11 @@
       <c r="D396" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
@@ -7965,8 +9137,11 @@
       <c r="D397" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
@@ -7979,8 +9154,11 @@
       <c r="D398" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
@@ -7993,8 +9171,11 @@
       <c r="D399" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
@@ -8007,8 +9188,11 @@
       <c r="D400" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
@@ -8021,8 +9205,11 @@
       <c r="D401" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
@@ -8035,8 +9222,11 @@
       <c r="D402" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
@@ -8049,8 +9239,11 @@
       <c r="D403" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
@@ -8063,8 +9256,11 @@
       <c r="D404" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
@@ -8077,13 +9273,16 @@
       <c r="D405" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C406" t="s">
         <v>407</v>
@@ -8091,8 +9290,11 @@
       <c r="D406" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
@@ -8105,8 +9307,11 @@
       <c r="D407" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
@@ -8119,8 +9324,11 @@
       <c r="D408" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
@@ -8133,8 +9341,11 @@
       <c r="D409" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
@@ -8147,8 +9358,11 @@
       <c r="D410" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
@@ -8161,8 +9375,11 @@
       <c r="D411" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
@@ -8175,8 +9392,11 @@
       <c r="D412" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
@@ -8189,8 +9409,11 @@
       <c r="D413" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
@@ -8203,8 +9426,11 @@
       <c r="D414" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
@@ -8217,22 +9443,28 @@
       <c r="D415" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B416" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C416" t="s">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="D416" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
@@ -8245,8 +9477,11 @@
       <c r="D417" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
@@ -8259,8 +9494,11 @@
       <c r="D418" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
@@ -8273,8 +9511,11 @@
       <c r="D419" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
@@ -8287,8 +9528,11 @@
       <c r="D420" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
@@ -8301,8 +9545,11 @@
       <c r="D421" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
@@ -8315,8 +9562,11 @@
       <c r="D422" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
@@ -8329,8 +9579,11 @@
       <c r="D423" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
@@ -8343,8 +9596,11 @@
       <c r="D424" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>426</v>
       </c>
@@ -8357,8 +9613,11 @@
       <c r="D425" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>427</v>
       </c>
@@ -8371,8 +9630,11 @@
       <c r="D426" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>428</v>
       </c>
@@ -8385,8 +9647,11 @@
       <c r="D427" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>429</v>
       </c>
@@ -8399,8 +9664,11 @@
       <c r="D428" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
@@ -8413,8 +9681,11 @@
       <c r="D429" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
@@ -8427,8 +9698,11 @@
       <c r="D430" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
@@ -8441,8 +9715,11 @@
       <c r="D431" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
@@ -8455,8 +9732,11 @@
       <c r="D432" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
@@ -8469,8 +9749,11 @@
       <c r="D433" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
@@ -8483,8 +9766,11 @@
       <c r="D434" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
@@ -8497,8 +9783,11 @@
       <c r="D435" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
@@ -8511,8 +9800,11 @@
       <c r="D436" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
@@ -8525,8 +9817,11 @@
       <c r="D437" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
@@ -8539,13 +9834,16 @@
       <c r="D438" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B439" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C439" t="s">
         <v>440</v>
@@ -8553,13 +9851,16 @@
       <c r="D439" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B440" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C440" t="s">
         <v>441</v>
@@ -8567,13 +9868,16 @@
       <c r="D440" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B441" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C441" t="s">
         <v>442</v>
@@ -8581,13 +9885,16 @@
       <c r="D441" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B442" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C442" t="s">
         <v>443</v>
@@ -8595,13 +9902,16 @@
       <c r="D442" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B443" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C443" t="s">
         <v>444</v>
@@ -8609,13 +9919,16 @@
       <c r="D443" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B444" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C444" t="s">
         <v>445</v>
@@ -8623,13 +9936,16 @@
       <c r="D444" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B445" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C445" t="s">
         <v>446</v>
@@ -8637,13 +9953,16 @@
       <c r="D445" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B446" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C446" t="s">
         <v>447</v>
@@ -8651,13 +9970,16 @@
       <c r="D446" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B447" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C447" t="s">
         <v>448</v>
@@ -8665,13 +9987,16 @@
       <c r="D447" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B448" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C448" t="s">
         <v>449</v>
@@ -8679,13 +10004,16 @@
       <c r="D448" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C449" t="s">
         <v>450</v>
@@ -8693,13 +10021,16 @@
       <c r="D449" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B450" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C450" t="s">
         <v>451</v>
@@ -8707,13 +10038,16 @@
       <c r="D450" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B451" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C451" t="s">
         <v>452</v>
@@ -8721,13 +10055,16 @@
       <c r="D451" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B452" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C452" t="s">
         <v>453</v>
@@ -8735,13 +10072,16 @@
       <c r="D452" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B453" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C453" t="s">
         <v>454</v>
@@ -8749,13 +10089,16 @@
       <c r="D453" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B454" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C454" t="s">
         <v>455</v>
@@ -8763,13 +10106,16 @@
       <c r="D454" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B455" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C455" t="s">
         <v>456</v>
@@ -8777,13 +10123,16 @@
       <c r="D455" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B456" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C456" t="s">
         <v>457</v>
@@ -8791,13 +10140,16 @@
       <c r="D456" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B457" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C457" t="s">
         <v>458</v>
@@ -8805,13 +10157,16 @@
       <c r="D457" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B458" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C458" t="s">
         <v>459</v>
@@ -8819,13 +10174,16 @@
       <c r="D458" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B459" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C459" t="s">
         <v>460</v>
@@ -8833,13 +10191,16 @@
       <c r="D459" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B460" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C460" t="s">
         <v>461</v>
@@ -8847,13 +10208,16 @@
       <c r="D460" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B461" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C461" t="s">
         <v>462</v>
@@ -8861,13 +10225,16 @@
       <c r="D461" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B462" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C462" t="s">
         <v>463</v>
@@ -8875,13 +10242,16 @@
       <c r="D462" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B463" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C463" t="s">
         <v>464</v>
@@ -8889,13 +10259,16 @@
       <c r="D463" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B464" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C464" t="s">
         <v>465</v>
@@ -8903,13 +10276,16 @@
       <c r="D464" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B465" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C465" t="s">
         <v>466</v>
@@ -8917,13 +10293,16 @@
       <c r="D465" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B466" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C466" t="s">
         <v>467</v>
@@ -8931,13 +10310,16 @@
       <c r="D466" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B467" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C467" t="s">
         <v>468</v>
@@ -8945,13 +10327,16 @@
       <c r="D467" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B468" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C468" t="s">
         <v>469</v>
@@ -8959,13 +10344,16 @@
       <c r="D468" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B469" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C469" t="s">
         <v>470</v>
@@ -8973,13 +10361,16 @@
       <c r="D469" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B470" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C470" t="s">
         <v>471</v>
@@ -8987,13 +10378,16 @@
       <c r="D470" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B471" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C471" t="s">
         <v>472</v>
@@ -9001,13 +10395,16 @@
       <c r="D471" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B472" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C472" t="s">
         <v>473</v>
@@ -9015,13 +10412,16 @@
       <c r="D472" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B473" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C473" t="s">
         <v>474</v>
@@ -9029,13 +10429,16 @@
       <c r="D473" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B474" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C474" t="s">
         <v>475</v>
@@ -9043,13 +10446,16 @@
       <c r="D474" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B475" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C475" t="s">
         <v>476</v>
@@ -9057,13 +10463,16 @@
       <c r="D475" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B476" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C476" t="s">
         <v>477</v>
@@ -9071,13 +10480,16 @@
       <c r="D476" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B477" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C477" t="s">
         <v>478</v>
@@ -9085,13 +10497,16 @@
       <c r="D477" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B478" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C478" t="s">
         <v>479</v>
@@ -9099,13 +10514,16 @@
       <c r="D478" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B479" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C479" t="s">
         <v>480</v>
@@ -9113,13 +10531,16 @@
       <c r="D479" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C480" t="s">
         <v>481</v>
@@ -9127,13 +10548,16 @@
       <c r="D480" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B481" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C481" t="s">
         <v>482</v>
@@ -9141,13 +10565,16 @@
       <c r="D481" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B482" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C482" t="s">
         <v>483</v>
@@ -9155,13 +10582,16 @@
       <c r="D482" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B483" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C483" t="s">
         <v>484</v>
@@ -9169,13 +10599,16 @@
       <c r="D483" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E483" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B484" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C484" t="s">
         <v>485</v>
@@ -9183,13 +10616,16 @@
       <c r="D484" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B485" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C485" t="s">
         <v>486</v>
@@ -9197,13 +10633,16 @@
       <c r="D485" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B486" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C486" t="s">
         <v>487</v>
@@ -9211,13 +10650,16 @@
       <c r="D486" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B487" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C487" t="s">
         <v>488</v>
@@ -9225,13 +10667,16 @@
       <c r="D487" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B488" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C488" t="s">
         <v>489</v>
@@ -9239,13 +10684,16 @@
       <c r="D488" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B489" t="s">
-        <v>648</v>
+        <v>490</v>
       </c>
       <c r="C489" t="s">
         <v>490</v>
@@ -9253,13 +10701,16 @@
       <c r="D489" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B490" t="s">
-        <v>649</v>
+        <v>491</v>
       </c>
       <c r="C490" t="s">
         <v>491</v>
@@ -9267,8 +10718,11 @@
       <c r="D490" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
@@ -9281,8 +10735,11 @@
       <c r="D491" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
@@ -9295,8 +10752,11 @@
       <c r="D492" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E492" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
@@ -9309,8 +10769,11 @@
       <c r="D493" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E493" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
@@ -9323,8 +10786,11 @@
       <c r="D494" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E494" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
@@ -9337,8 +10803,11 @@
       <c r="D495" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E495" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>497</v>
       </c>
@@ -9351,8 +10820,11 @@
       <c r="D496" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E496" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>498</v>
       </c>
@@ -9365,8 +10837,11 @@
       <c r="D497" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>499</v>
       </c>
@@ -9379,8 +10854,11 @@
       <c r="D498" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>500</v>
       </c>
@@ -9393,8 +10871,11 @@
       <c r="D499" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E499" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>501</v>
       </c>
@@ -9407,8 +10888,11 @@
       <c r="D500" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>502</v>
       </c>
@@ -9421,8 +10905,11 @@
       <c r="D501" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>503</v>
       </c>
@@ -9435,8 +10922,11 @@
       <c r="D502" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E502" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>504</v>
       </c>
@@ -9449,8 +10939,11 @@
       <c r="D503" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E503" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>505</v>
       </c>
@@ -9463,8 +10956,11 @@
       <c r="D504" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E504" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>506</v>
       </c>
@@ -9477,8 +10973,11 @@
       <c r="D505" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E505" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>507</v>
       </c>
@@ -9491,8 +10990,11 @@
       <c r="D506" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E506" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>508</v>
       </c>
@@ -9505,8 +11007,11 @@
       <c r="D507" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E507" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>509</v>
       </c>
@@ -9519,8 +11024,11 @@
       <c r="D508" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E508" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>510</v>
       </c>
@@ -9533,8 +11041,11 @@
       <c r="D509" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E509" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>511</v>
       </c>
@@ -9547,8 +11058,11 @@
       <c r="D510" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>512</v>
       </c>
@@ -9561,8 +11075,11 @@
       <c r="D511" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E511" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>513</v>
       </c>
@@ -9575,8 +11092,11 @@
       <c r="D512" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E512" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>514</v>
       </c>
@@ -9589,8 +11109,11 @@
       <c r="D513" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E513" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>515</v>
       </c>
@@ -9603,8 +11126,11 @@
       <c r="D514" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>516</v>
       </c>
@@ -9617,8 +11143,11 @@
       <c r="D515" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E515" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>517</v>
       </c>
@@ -9631,8 +11160,11 @@
       <c r="D516" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E516" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>518</v>
       </c>
@@ -9645,8 +11177,11 @@
       <c r="D517" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E517" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>519</v>
       </c>
@@ -9659,8 +11194,11 @@
       <c r="D518" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E518" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>520</v>
       </c>
@@ -9673,8 +11211,11 @@
       <c r="D519" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E519" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>521</v>
       </c>
@@ -9687,8 +11228,11 @@
       <c r="D520" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E520" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>522</v>
       </c>
@@ -9701,8 +11245,11 @@
       <c r="D521" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E521" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>523</v>
       </c>
@@ -9715,8 +11262,11 @@
       <c r="D522" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E522" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>524</v>
       </c>
@@ -9729,8 +11279,11 @@
       <c r="D523" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E523" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>525</v>
       </c>
@@ -9743,8 +11296,11 @@
       <c r="D524" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E524" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>526</v>
       </c>
@@ -9757,8 +11313,11 @@
       <c r="D525" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E525" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>527</v>
       </c>
@@ -9771,8 +11330,11 @@
       <c r="D526" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E526" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>528</v>
       </c>
@@ -9785,8 +11347,11 @@
       <c r="D527" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E527" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>529</v>
       </c>
@@ -9799,8 +11364,11 @@
       <c r="D528" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E528" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>530</v>
       </c>
@@ -9813,8 +11381,11 @@
       <c r="D529" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E529" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>531</v>
       </c>
@@ -9827,8 +11398,11 @@
       <c r="D530" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E530" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>532</v>
       </c>
@@ -9841,8 +11415,11 @@
       <c r="D531" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E531" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>533</v>
       </c>
@@ -9855,8 +11432,11 @@
       <c r="D532" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E532" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>534</v>
       </c>
@@ -9869,8 +11449,11 @@
       <c r="D533" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E533" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>535</v>
       </c>
@@ -9883,8 +11466,11 @@
       <c r="D534" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E534" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>536</v>
       </c>
@@ -9897,8 +11483,11 @@
       <c r="D535" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E535" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>537</v>
       </c>
@@ -9911,8 +11500,11 @@
       <c r="D536" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E536" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>538</v>
       </c>
@@ -9925,8 +11517,11 @@
       <c r="D537" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E537" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>539</v>
       </c>
@@ -9939,8 +11534,11 @@
       <c r="D538" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E538" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>540</v>
       </c>
@@ -9953,8 +11551,11 @@
       <c r="D539" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E539" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>541</v>
       </c>
@@ -9967,8 +11568,11 @@
       <c r="D540" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E540" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>542</v>
       </c>
@@ -9981,8 +11585,11 @@
       <c r="D541" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E541" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>543</v>
       </c>
@@ -9995,8 +11602,11 @@
       <c r="D542" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E542" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>544</v>
       </c>
@@ -10009,8 +11619,11 @@
       <c r="D543" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E543" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>545</v>
       </c>
@@ -10023,8 +11636,11 @@
       <c r="D544" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E544" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>546</v>
       </c>
@@ -10037,8 +11653,11 @@
       <c r="D545" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E545" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>547</v>
       </c>
@@ -10051,8 +11670,11 @@
       <c r="D546" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E546" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>548</v>
       </c>
@@ -10065,8 +11687,11 @@
       <c r="D547" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E547" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>549</v>
       </c>
@@ -10079,8 +11704,11 @@
       <c r="D548" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E548" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>550</v>
       </c>
@@ -10093,8 +11721,11 @@
       <c r="D549" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E549" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>551</v>
       </c>
@@ -10107,8 +11738,11 @@
       <c r="D550" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E550" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>552</v>
       </c>
@@ -10121,8 +11755,11 @@
       <c r="D551" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E551" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>553</v>
       </c>
@@ -10135,8 +11772,11 @@
       <c r="D552" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E552" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>554</v>
       </c>
@@ -10149,8 +11789,11 @@
       <c r="D553" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E553" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>555</v>
       </c>
@@ -10163,8 +11806,11 @@
       <c r="D554" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E554" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>556</v>
       </c>
@@ -10177,8 +11823,11 @@
       <c r="D555" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E555" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>557</v>
       </c>
@@ -10191,8 +11840,11 @@
       <c r="D556" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E556" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>558</v>
       </c>
@@ -10205,8 +11857,11 @@
       <c r="D557" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E557" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>559</v>
       </c>
@@ -10219,8 +11874,11 @@
       <c r="D558" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E558" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>560</v>
       </c>
@@ -10233,8 +11891,11 @@
       <c r="D559" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E559" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>561</v>
       </c>
@@ -10247,8 +11908,11 @@
       <c r="D560" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E560" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>562</v>
       </c>
@@ -10261,8 +11925,11 @@
       <c r="D561" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E561" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>563</v>
       </c>
@@ -10275,8 +11942,11 @@
       <c r="D562" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E562" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>564</v>
       </c>
@@ -10289,8 +11959,11 @@
       <c r="D563" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E563" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>565</v>
       </c>
@@ -10303,8 +11976,11 @@
       <c r="D564" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E564" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>566</v>
       </c>
@@ -10317,8 +11993,11 @@
       <c r="D565" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E565" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>567</v>
       </c>
@@ -10331,8 +12010,11 @@
       <c r="D566" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E566" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>568</v>
       </c>
@@ -10345,8 +12027,11 @@
       <c r="D567" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E567" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>569</v>
       </c>
@@ -10359,8 +12044,11 @@
       <c r="D568" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>570</v>
       </c>
@@ -10373,8 +12061,11 @@
       <c r="D569" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E569" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>571</v>
       </c>
@@ -10387,8 +12078,11 @@
       <c r="D570" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E570" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>572</v>
       </c>
@@ -10401,8 +12095,11 @@
       <c r="D571" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>573</v>
       </c>
@@ -10415,8 +12112,11 @@
       <c r="D572" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>574</v>
       </c>
@@ -10429,8 +12129,11 @@
       <c r="D573" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E573" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>575</v>
       </c>
@@ -10443,8 +12146,11 @@
       <c r="D574" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E574" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>576</v>
       </c>
@@ -10457,8 +12163,11 @@
       <c r="D575" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E575" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>577</v>
       </c>
@@ -10471,8 +12180,11 @@
       <c r="D576" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E576" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>578</v>
       </c>
@@ -10485,8 +12197,11 @@
       <c r="D577" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>579</v>
       </c>
@@ -10499,8 +12214,11 @@
       <c r="D578" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E578" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>580</v>
       </c>
@@ -10513,8 +12231,11 @@
       <c r="D579" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E579" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>581</v>
       </c>
@@ -10527,8 +12248,11 @@
       <c r="D580" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>582</v>
       </c>
@@ -10541,8 +12265,11 @@
       <c r="D581" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E581" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>583</v>
       </c>
@@ -10555,8 +12282,11 @@
       <c r="D582" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E582" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>584</v>
       </c>
@@ -10569,8 +12299,11 @@
       <c r="D583" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>585</v>
       </c>
@@ -10583,8 +12316,11 @@
       <c r="D584" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>586</v>
       </c>
@@ -10597,8 +12333,11 @@
       <c r="D585" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E585" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>587</v>
       </c>
@@ -10611,8 +12350,11 @@
       <c r="D586" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>588</v>
       </c>
@@ -10625,38 +12367,13 @@
       <c r="D587" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B588" t="s">
-        <v>589</v>
-      </c>
-      <c r="C588" t="s">
-        <v>589</v>
-      </c>
-      <c r="D588" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B589" t="s">
-        <v>590</v>
-      </c>
-      <c r="C589" t="s">
-        <v>590</v>
-      </c>
-      <c r="D589" t="s">
-        <v>590</v>
+      <c r="E587" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D589">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="B2:E587">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
